--- a/thietbi.xlsx
+++ b/thietbi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\Member-Management-Hibernate-Annotation-3Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670CC542-D5C7-4590-A46D-B5B73463BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD90DE-F184-461F-9A38-E9A6CDF45003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DB22E58-A8DE-4BCA-B876-EEDF391A72A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>Mã Thiết Bị</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Micro SamSung không dây 2023</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BC39AE-DC23-4585-89E1-A3930300483F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +456,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1000008</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -461,13 +467,79 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1000009</v>
+        <v>2334434</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2908798</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38975</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>33333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
